--- a/output_merge.xlsx
+++ b/output_merge.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>모델</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
